--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_18-51.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_18-51.xlsx
@@ -86,6 +86,9 @@
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
+    <t>CEREBROFORTE 20% SYRUP 120ML</t>
+  </si>
+  <si>
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>FERNILAR 5MG 20 F.C. TAB.</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -249,6 +255,9 @@
   </si>
   <si>
     <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
@@ -1190,17 +1199,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>89</v>
+        <v>120.28</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1216,13 +1225,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1242,17 +1251,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1260,7 +1269,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1268,17 +1277,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>25.5</v>
+        <v>10</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1286,7 +1295,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1294,17 +1303,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>99</v>
+        <v>25.5</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1312,7 +1321,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1320,17 +1329,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1338,7 +1347,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1346,17 +1355,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1364,7 +1373,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1372,17 +1381,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1390,7 +1399,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1398,17 +1407,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1424,17 +1433,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1450,17 +1459,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1476,17 +1485,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1494,7 +1503,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1502,13 +1511,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1528,13 +1537,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1554,13 +1563,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1580,13 +1589,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1598,7 +1607,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1606,17 +1615,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1624,7 +1633,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1632,17 +1641,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>55.670000000000002</v>
+        <v>26</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1658,17 +1667,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1690,11 +1699,11 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>92</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1710,13 +1719,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>79.200000000000003</v>
+        <v>74</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1736,13 +1745,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1762,13 +1771,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>39</v>
+        <v>79.200000000000003</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1788,13 +1797,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1814,13 +1823,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1840,13 +1849,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1872,7 +1881,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1892,17 +1901,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1910,7 +1919,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1918,17 +1927,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1936,7 +1945,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1944,17 +1953,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1962,7 +1971,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1970,17 +1979,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1988,7 +1997,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1996,17 +2005,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2014,7 +2023,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2022,17 +2031,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2040,7 +2049,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2048,17 +2057,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2066,7 +2075,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2074,13 +2083,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2100,13 +2109,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2126,17 +2135,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2152,17 +2161,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2178,17 +2187,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2204,17 +2213,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>30.09</v>
+        <v>24</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2230,13 +2239,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2256,13 +2265,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>68</v>
+        <v>30.09</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2282,17 +2291,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2300,7 +2309,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2308,17 +2317,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2326,7 +2335,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2334,13 +2343,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2352,7 +2361,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2360,17 +2369,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2378,7 +2387,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2386,17 +2395,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>192</v>
+        <v>22.5</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2412,13 +2421,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2430,7 +2439,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2438,17 +2447,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2456,7 +2465,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2464,17 +2473,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2482,7 +2491,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2490,13 +2499,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2508,7 +2517,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2516,17 +2525,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2534,7 +2543,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2542,13 +2551,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2560,7 +2569,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2568,51 +2577,129 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="K69" s="10">
-        <v>4021.7399999999998</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="11">
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
+        <v>100</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>9</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
         <v>101</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c t="s" r="F70" s="12">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
         <v>102</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c t="s" r="I70" s="14">
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>24</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c t="s" r="N70" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
         <v>103</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
+        <v>9</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>20</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c t="s" r="N71" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" ht="26.25" customHeight="1">
+      <c r="K72" s="10">
+        <v>4189.0200000000004</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="11">
+        <v>104</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c t="s" r="F73" s="12">
+        <v>105</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
+      <c t="s" r="I73" s="14">
+        <v>106</v>
+      </c>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="215">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2815,10 +2902,19 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="I73:N73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
